--- a/xl-template.xlsx
+++ b/xl-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\Personal Stuff\Coding\Personal\Soundrop-Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072DA270-739E-4EBD-A3EC-8A8512D9FDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AEDCAA-5AE5-4649-89E8-94222375DCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,6 +488,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
     <col min="4" max="4" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
